--- a/cohort_file.xlsx
+++ b/cohort_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\db2457\Documents\Projects\Offboarding Code\HBM Artifact Cleaning\code\intervention_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1F2DC8-15D1-4BE2-AAE7-BA04C1A68ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC182EA-2EA5-4FB8-AED3-9E617FA65674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6015" yWindow="1620" windowWidth="16800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="2070" windowWidth="16800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cohort_file" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>csn</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>xxxxxxx</t>
+  </si>
+  <si>
+    <t>MR12345</t>
   </si>
 </sst>
 </file>
@@ -914,7 +917,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,8 +951,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>12345</v>
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
